--- a/clientes/Arranjo Decorações/Orcamentos/arranjo/1.xlsx
+++ b/clientes/Arranjo Decorações/Orcamentos/arranjo/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\clientes\Arranjo Decorações\Orcamentos\arranjo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Arranjo Decorações\Orcamentos\arranjo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{BDBDC26A-BAB9-4DBE-8A89-8C7E201441FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{D8A65200-CDAF-4AD6-A4B4-AAFCC2AB74F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>13/02/2023</t>
   </si>
   <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Arranjo Decorações_arranjo.xlsx</t>
+    <t>C:\github\myxlsm\orcamentos\Arranjo Decorações_arranjo.xlsx</t>
   </si>
   <si>
     <t>Locação</t>
@@ -470,7 +470,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
